--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Fn1-Plaur.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Fn1-Plaur.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>18.9966555357926</v>
+        <v>21.84976866666667</v>
       </c>
       <c r="H2">
-        <v>18.9966555357926</v>
+        <v>65.549306</v>
       </c>
       <c r="I2">
-        <v>0.04463632731170449</v>
+        <v>0.05020018890879543</v>
       </c>
       <c r="J2">
-        <v>0.04463632731170449</v>
+        <v>0.05020018890879543</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>17.4122049827738</v>
+        <v>43.91845900000001</v>
       </c>
       <c r="N2">
-        <v>17.4122049827738</v>
+        <v>131.755377</v>
       </c>
       <c r="O2">
-        <v>0.6880473828339218</v>
+        <v>0.8150909120558799</v>
       </c>
       <c r="P2">
-        <v>0.6880473828339218</v>
+        <v>0.81509091205588</v>
       </c>
       <c r="Q2">
-        <v>330.7736601763654</v>
+        <v>959.6081693464847</v>
       </c>
       <c r="R2">
-        <v>330.7736601763654</v>
+        <v>8636.473524118363</v>
       </c>
       <c r="S2">
-        <v>0.03071190818613658</v>
+        <v>0.04091771776304753</v>
       </c>
       <c r="T2">
-        <v>0.03071190818613658</v>
+        <v>0.04091771776304753</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>18.9966555357926</v>
+        <v>21.84976866666667</v>
       </c>
       <c r="H3">
-        <v>18.9966555357926</v>
+        <v>65.549306</v>
       </c>
       <c r="I3">
-        <v>0.04463632731170449</v>
+        <v>0.05020018890879543</v>
       </c>
       <c r="J3">
-        <v>0.04463632731170449</v>
+        <v>0.05020018890879543</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.06026640130944</v>
+        <v>2.100310333333333</v>
       </c>
       <c r="N3">
-        <v>2.06026640130944</v>
+        <v>6.300930999999999</v>
       </c>
       <c r="O3">
-        <v>0.08141191232035462</v>
+        <v>0.03898005312975703</v>
       </c>
       <c r="P3">
-        <v>0.08141191232035462</v>
+        <v>0.03898005312975703</v>
       </c>
       <c r="Q3">
-        <v>39.13817113764247</v>
+        <v>45.89129491154289</v>
       </c>
       <c r="R3">
-        <v>39.13817113764247</v>
+        <v>413.021654203886</v>
       </c>
       <c r="S3">
-        <v>0.003633928765403137</v>
+        <v>0.001956806030788685</v>
       </c>
       <c r="T3">
-        <v>0.003633928765403137</v>
+        <v>0.001956806030788685</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>18.9966555357926</v>
+        <v>21.84976866666667</v>
       </c>
       <c r="H4">
-        <v>18.9966555357926</v>
+        <v>65.549306</v>
       </c>
       <c r="I4">
-        <v>0.04463632731170449</v>
+        <v>0.05020018890879543</v>
       </c>
       <c r="J4">
-        <v>0.04463632731170449</v>
+        <v>0.05020018890879543</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.83422320874641</v>
+        <v>7.8629</v>
       </c>
       <c r="N4">
-        <v>5.83422320874641</v>
+        <v>23.5887</v>
       </c>
       <c r="O4">
-        <v>0.2305407048457236</v>
+        <v>0.1459290348143631</v>
       </c>
       <c r="P4">
-        <v>0.2305407048457236</v>
+        <v>0.1459290348143631</v>
       </c>
       <c r="Q4">
-        <v>110.8307286154821</v>
+        <v>171.8025460491333</v>
       </c>
       <c r="R4">
-        <v>110.8307286154821</v>
+        <v>1546.2229144422</v>
       </c>
       <c r="S4">
-        <v>0.01029049036016478</v>
+        <v>0.007325665114959212</v>
       </c>
       <c r="T4">
-        <v>0.01029049036016478</v>
+        <v>0.007325665114959212</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>379.954067822278</v>
+        <v>385.0524703333334</v>
       </c>
       <c r="H5">
-        <v>379.954067822278</v>
+        <v>1155.157411</v>
       </c>
       <c r="I5">
-        <v>0.8927757890210728</v>
+        <v>0.8846641374295412</v>
       </c>
       <c r="J5">
-        <v>0.8927757890210728</v>
+        <v>0.8846641374295412</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>17.4122049827738</v>
+        <v>43.91845900000001</v>
       </c>
       <c r="N5">
-        <v>17.4122049827738</v>
+        <v>131.755377</v>
       </c>
       <c r="O5">
-        <v>0.6880473828339218</v>
+        <v>0.8150909120558799</v>
       </c>
       <c r="P5">
-        <v>0.6880473828339218</v>
+        <v>0.81509091205588</v>
       </c>
       <c r="Q5">
-        <v>6615.838112960243</v>
+        <v>16910.91113118322</v>
       </c>
       <c r="R5">
-        <v>6615.838112960243</v>
+        <v>152198.200180649</v>
       </c>
       <c r="S5">
-        <v>0.6142720450934386</v>
+        <v>0.721081698640573</v>
       </c>
       <c r="T5">
-        <v>0.6142720450934386</v>
+        <v>0.7210816986405731</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>379.954067822278</v>
+        <v>385.0524703333334</v>
       </c>
       <c r="H6">
-        <v>379.954067822278</v>
+        <v>1155.157411</v>
       </c>
       <c r="I6">
-        <v>0.8927757890210728</v>
+        <v>0.8846641374295412</v>
       </c>
       <c r="J6">
-        <v>0.8927757890210728</v>
+        <v>0.8846641374295412</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.06026640130944</v>
+        <v>2.100310333333333</v>
       </c>
       <c r="N6">
-        <v>2.06026640130944</v>
+        <v>6.300930999999999</v>
       </c>
       <c r="O6">
-        <v>0.08141191232035462</v>
+        <v>0.03898005312975703</v>
       </c>
       <c r="P6">
-        <v>0.08141191232035462</v>
+        <v>0.03898005312975703</v>
       </c>
       <c r="Q6">
-        <v>782.8065999750875</v>
+        <v>808.7296823166268</v>
       </c>
       <c r="R6">
-        <v>782.8065999750875</v>
+        <v>7278.567140849641</v>
       </c>
       <c r="S6">
-        <v>0.072682584257519</v>
+        <v>0.03448425507899418</v>
       </c>
       <c r="T6">
-        <v>0.072682584257519</v>
+        <v>0.03448425507899418</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>379.954067822278</v>
+        <v>385.0524703333334</v>
       </c>
       <c r="H7">
-        <v>379.954067822278</v>
+        <v>1155.157411</v>
       </c>
       <c r="I7">
-        <v>0.8927757890210728</v>
+        <v>0.8846641374295412</v>
       </c>
       <c r="J7">
-        <v>0.8927757890210728</v>
+        <v>0.8846641374295412</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.83422320874641</v>
+        <v>7.8629</v>
       </c>
       <c r="N7">
-        <v>5.83422320874641</v>
+        <v>23.5887</v>
       </c>
       <c r="O7">
-        <v>0.2305407048457236</v>
+        <v>0.1459290348143631</v>
       </c>
       <c r="P7">
-        <v>0.2305407048457236</v>
+        <v>0.1459290348143631</v>
       </c>
       <c r="Q7">
-        <v>2216.736840746342</v>
+        <v>3027.629068983967</v>
       </c>
       <c r="R7">
-        <v>2216.736840746342</v>
+        <v>27248.6616208557</v>
       </c>
       <c r="S7">
-        <v>0.2058211596701152</v>
+        <v>0.129098183709974</v>
       </c>
       <c r="T7">
-        <v>0.2058211596701152</v>
+        <v>0.129098183709974</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>26.63661054454</v>
+        <v>28.350479</v>
       </c>
       <c r="H8">
-        <v>26.63661054454</v>
+        <v>85.05143699999999</v>
       </c>
       <c r="I8">
-        <v>0.06258788366722257</v>
+        <v>0.06513567366166337</v>
       </c>
       <c r="J8">
-        <v>0.06258788366722257</v>
+        <v>0.06513567366166337</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>17.4122049827738</v>
+        <v>43.91845900000001</v>
       </c>
       <c r="N8">
-        <v>17.4122049827738</v>
+        <v>131.755377</v>
       </c>
       <c r="O8">
-        <v>0.6880473828339218</v>
+        <v>0.8150909120558799</v>
       </c>
       <c r="P8">
-        <v>0.6880473828339218</v>
+        <v>0.81509091205588</v>
       </c>
       <c r="Q8">
-        <v>463.8021228478446</v>
+        <v>1245.109349591861</v>
       </c>
       <c r="R8">
-        <v>463.8021228478446</v>
+        <v>11205.98414632675</v>
       </c>
       <c r="S8">
-        <v>0.04306342955434644</v>
+        <v>0.05309149565225935</v>
       </c>
       <c r="T8">
-        <v>0.04306342955434644</v>
+        <v>0.05309149565225936</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>26.63661054454</v>
+        <v>28.350479</v>
       </c>
       <c r="H9">
-        <v>26.63661054454</v>
+        <v>85.05143699999999</v>
       </c>
       <c r="I9">
-        <v>0.06258788366722257</v>
+        <v>0.06513567366166337</v>
       </c>
       <c r="J9">
-        <v>0.06258788366722257</v>
+        <v>0.06513567366166337</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.06026640130944</v>
+        <v>2.100310333333333</v>
       </c>
       <c r="N9">
-        <v>2.06026640130944</v>
+        <v>6.300930999999999</v>
       </c>
       <c r="O9">
-        <v>0.08141191232035462</v>
+        <v>0.03898005312975703</v>
       </c>
       <c r="P9">
-        <v>0.08141191232035462</v>
+        <v>0.03898005312975703</v>
       </c>
       <c r="Q9">
-        <v>54.87851374968051</v>
+        <v>59.54480399864966</v>
       </c>
       <c r="R9">
-        <v>54.87851374968051</v>
+        <v>535.9032359878469</v>
       </c>
       <c r="S9">
-        <v>0.005095399297432478</v>
+        <v>0.002538992019974153</v>
       </c>
       <c r="T9">
-        <v>0.005095399297432478</v>
+        <v>0.002538992019974153</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>26.63661054454</v>
+        <v>28.350479</v>
       </c>
       <c r="H10">
-        <v>26.63661054454</v>
+        <v>85.05143699999999</v>
       </c>
       <c r="I10">
-        <v>0.06258788366722257</v>
+        <v>0.06513567366166337</v>
       </c>
       <c r="J10">
-        <v>0.06258788366722257</v>
+        <v>0.06513567366166337</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.83422320874641</v>
+        <v>7.8629</v>
       </c>
       <c r="N10">
-        <v>5.83422320874641</v>
+        <v>23.5887</v>
       </c>
       <c r="O10">
-        <v>0.2305407048457236</v>
+        <v>0.1459290348143631</v>
       </c>
       <c r="P10">
-        <v>0.2305407048457236</v>
+        <v>0.1459290348143631</v>
       </c>
       <c r="Q10">
-        <v>155.4039314412946</v>
+        <v>222.9169813291</v>
       </c>
       <c r="R10">
-        <v>155.4039314412946</v>
+        <v>2006.2528319619</v>
       </c>
       <c r="S10">
-        <v>0.01442905481544364</v>
+        <v>0.009505185989429867</v>
       </c>
       <c r="T10">
-        <v>0.01442905481544364</v>
+        <v>0.009505185989429867</v>
       </c>
     </row>
   </sheetData>
